--- a/Data/Bot1_Config.xlsx
+++ b/Data/Bot1_Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Finance Laptop\Documents\UiPath\DO and Invoice Process Automation_Bot 1\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AD212C6-8FA0-41AD-9712-9766097F8D9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E012F0C8-2B8C-456C-BD98-8B27950FC307}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5592" yWindow="5592" windowWidth="9768" windowHeight="2448" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="177">
   <si>
     <t>Name</t>
   </si>
@@ -592,6 +592,15 @@
 Note: This is auto generated email by bot please don't reply to this.
 Thanks,
 Bot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monthly Customer sheet name from </t>
+  </si>
+  <si>
+    <t>DelayAfterMonthly</t>
+  </si>
+  <si>
+    <t>Delay After entering the start time and end time</t>
   </si>
 </sst>
 </file>
@@ -633,6 +642,7 @@
     <font>
       <sz val="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -984,8 +994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z983"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -1467,8 +1477,21 @@
       <c r="B42" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" ht="14.25" customHeight="1"/>
+      <c r="C42" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A43" t="s">
+        <v>175</v>
+      </c>
+      <c r="B43">
+        <v>0.5</v>
+      </c>
+      <c r="C43" t="s">
+        <v>176</v>
+      </c>
+    </row>
     <row r="44" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="45" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="46" spans="1:3" ht="14.25" customHeight="1"/>
@@ -2423,7 +2446,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z988"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -3587,7 +3610,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14B39A53-AEB2-4255-A0D4-3631566A9FD8}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:A6"/>
     </sheetView>
   </sheetViews>
@@ -3661,7 +3684,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>

--- a/Data/Bot1_Config.xlsx
+++ b/Data/Bot1_Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Finance Laptop\Documents\UiPath\DO and Invoice Process Automation_Bot 1\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E012F0C8-2B8C-456C-BD98-8B27950FC307}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43D1981A-2201-4EAC-8D6D-3EAEF6930EF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5592" yWindow="5592" windowWidth="9768" windowHeight="2448" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="176">
   <si>
     <t>Name</t>
   </si>
@@ -297,9 +297,6 @@
   </si>
   <si>
     <t>DelayLong</t>
-  </si>
-  <si>
-    <t>ExceptionAttachmentPath</t>
   </si>
   <si>
     <t>DelayAfterShort</t>
@@ -994,7 +991,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z983"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -1060,7 +1057,7 @@
         <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
@@ -1071,7 +1068,7 @@
         <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
@@ -1082,29 +1079,29 @@
         <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" t="s">
-        <v>83</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
@@ -1112,10 +1109,10 @@
         <v>47</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
@@ -1126,18 +1123,18 @@
         <v>44</v>
       </c>
       <c r="C10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
       <c r="A11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
@@ -1148,7 +1145,7 @@
         <v>54</v>
       </c>
       <c r="C12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
@@ -1159,7 +1156,7 @@
         <v>56</v>
       </c>
       <c r="C13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
@@ -1170,7 +1167,7 @@
         <v>57</v>
       </c>
       <c r="C14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
@@ -1178,10 +1175,10 @@
         <v>60</v>
       </c>
       <c r="B15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="24" customHeight="1">
@@ -1192,7 +1189,7 @@
         <v>74</v>
       </c>
       <c r="C16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="25.2" customHeight="1">
@@ -1200,10 +1197,10 @@
         <v>62</v>
       </c>
       <c r="B17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="18.600000000000001" customHeight="1">
@@ -1214,7 +1211,7 @@
         <v>75</v>
       </c>
       <c r="C18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15" customHeight="1">
@@ -1222,10 +1219,10 @@
         <v>64</v>
       </c>
       <c r="B19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="14.25" customHeight="1">
@@ -1236,7 +1233,7 @@
         <v>76</v>
       </c>
       <c r="C20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="14.25" customHeight="1">
@@ -1244,10 +1241,10 @@
         <v>66</v>
       </c>
       <c r="B21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="14.25" customHeight="1">
@@ -1255,10 +1252,10 @@
         <v>67</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="14.25" customHeight="1">
@@ -1266,10 +1263,10 @@
         <v>69</v>
       </c>
       <c r="B23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="14.25" customHeight="1">
@@ -1280,18 +1277,18 @@
         <v>77</v>
       </c>
       <c r="C24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="14.25" customHeight="1">
       <c r="A25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="14.25" customHeight="1">
@@ -1302,7 +1299,7 @@
         <v>78</v>
       </c>
       <c r="C26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="14.25" customHeight="1">
@@ -1310,10 +1307,10 @@
         <v>72</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C27" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="13.8" customHeight="1">
@@ -1324,51 +1321,51 @@
         <v>79</v>
       </c>
       <c r="C28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1">
       <c r="A29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1">
       <c r="A30" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C30" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1">
       <c r="A31" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B31" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C31" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="14.25" customHeight="1">
       <c r="A32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C32" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="14.25" customHeight="1">
@@ -1379,7 +1376,7 @@
         <v>5</v>
       </c>
       <c r="C33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="14.25" customHeight="1">
@@ -1390,7 +1387,7 @@
         <v>10</v>
       </c>
       <c r="C34" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="14.25" customHeight="1">
@@ -1401,40 +1398,40 @@
         <v>30</v>
       </c>
       <c r="C35" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="14.25" customHeight="1">
       <c r="A36" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B36">
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="14.25" customHeight="1">
       <c r="A37" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B37">
         <v>3</v>
       </c>
       <c r="C37" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="14.25" customHeight="1">
       <c r="A38" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B38">
         <v>3</v>
       </c>
       <c r="C38" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="14.25" customHeight="1">
@@ -1445,51 +1442,51 @@
         <v>52</v>
       </c>
       <c r="C39" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="14.25" customHeight="1">
       <c r="A40" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B40" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C40" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="14.25" customHeight="1">
       <c r="A41" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C41" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="14.25" customHeight="1">
       <c r="A42" t="s">
+        <v>169</v>
+      </c>
+      <c r="B42" t="s">
         <v>170</v>
       </c>
-      <c r="B42" t="s">
-        <v>171</v>
-      </c>
       <c r="C42" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="14.25" customHeight="1">
       <c r="A43" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B43">
         <v>0.5</v>
       </c>
       <c r="C43" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="14.25" customHeight="1"/>
@@ -3610,7 +3607,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14B39A53-AEB2-4255-A0D4-3631566A9FD8}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:A6"/>
     </sheetView>
   </sheetViews>
@@ -3634,42 +3631,42 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -3736,10 +3733,10 @@
         <v>68</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
@@ -3747,10 +3744,10 @@
         <v>59</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
@@ -3758,10 +3755,10 @@
         <v>45</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
@@ -3769,10 +3766,10 @@
         <v>42</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
@@ -3780,10 +3777,10 @@
         <v>53</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1"/>

--- a/Data/Bot1_Config.xlsx
+++ b/Data/Bot1_Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Finance Laptop\Documents\UiPath\DO and Invoice Process Automation_Bot 1\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43D1981A-2201-4EAC-8D6D-3EAEF6930EF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B39D2F0-C09F-46DD-9E5B-48526AA41A97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="5040" windowWidth="7500" windowHeight="3000" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="285">
   <si>
     <t>Name</t>
   </si>
@@ -156,9 +156,6 @@
   </si>
   <si>
     <t>M:\2. Sales Department\Unipath\Master File\</t>
-  </si>
-  <si>
-    <t>Fields to be added on UI by Huphin</t>
   </si>
   <si>
     <t>SDMSLoginUrl</t>
@@ -561,9 +558,6 @@
   </si>
   <si>
     <t>StartNotificationBody</t>
-  </si>
-  <si>
-    <t>DO and Invoice Process Automation bot 1 Started Run for</t>
   </si>
   <si>
     <t>Hello Receiver, 
@@ -598,6 +592,339 @@
   </si>
   <si>
     <t>Delay After entering the start time and end time</t>
+  </si>
+  <si>
+    <t>00:00:03</t>
+  </si>
+  <si>
+    <t>RetryIntervalShort</t>
+  </si>
+  <si>
+    <t>RetryIntervalMedium</t>
+  </si>
+  <si>
+    <t>RetryIntervalLong</t>
+  </si>
+  <si>
+    <t>00:00:05</t>
+  </si>
+  <si>
+    <t>00:00:10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO and Invoice Process Automation bot 1 Started Run for </t>
+  </si>
+  <si>
+    <t>DO Number</t>
+  </si>
+  <si>
+    <t>Item Group</t>
+  </si>
+  <si>
+    <t>Item Serial</t>
+  </si>
+  <si>
+    <t>Job Type</t>
+  </si>
+  <si>
+    <t>Job Site address</t>
+  </si>
+  <si>
+    <t>Start Time 1</t>
+  </si>
+  <si>
+    <t>End Time 1</t>
+  </si>
+  <si>
+    <t>Start Time 2</t>
+  </si>
+  <si>
+    <t>End Time 2</t>
+  </si>
+  <si>
+    <t>Signature</t>
+  </si>
+  <si>
+    <t>DO or Timesheet File Path</t>
+  </si>
+  <si>
+    <t>Monthly Excel File Path</t>
+  </si>
+  <si>
+    <t>Status Bot1</t>
+  </si>
+  <si>
+    <t>Comments1</t>
+  </si>
+  <si>
+    <t>CompanyNameCol</t>
+  </si>
+  <si>
+    <t>ItemGroupCol</t>
+  </si>
+  <si>
+    <t>ItemSerialCol</t>
+  </si>
+  <si>
+    <t>JobTypeCol</t>
+  </si>
+  <si>
+    <t>JobSiteAddressCol</t>
+  </si>
+  <si>
+    <t>StartTime1Col</t>
+  </si>
+  <si>
+    <t>EndTime1Col</t>
+  </si>
+  <si>
+    <t>StartTime2Col</t>
+  </si>
+  <si>
+    <t>EndTime2Col</t>
+  </si>
+  <si>
+    <t>SignatureCol</t>
+  </si>
+  <si>
+    <t>DOorTimesheetFilePathCol</t>
+  </si>
+  <si>
+    <t>MonthlyExcelFilePathCol</t>
+  </si>
+  <si>
+    <t>Comments1Col</t>
+  </si>
+  <si>
+    <t>DONumberCol</t>
+  </si>
+  <si>
+    <t>StatusBot1Col</t>
+  </si>
+  <si>
+    <t>Customer Name</t>
+  </si>
+  <si>
+    <t>CustomerNameCol</t>
+  </si>
+  <si>
+    <t>Company Name</t>
+  </si>
+  <si>
+    <t>Delivery Orders</t>
+  </si>
+  <si>
+    <t>DOFolderName</t>
+  </si>
+  <si>
+    <t>DailyName</t>
+  </si>
+  <si>
+    <t>ConsoName</t>
+  </si>
+  <si>
+    <t>MonthlyName</t>
+  </si>
+  <si>
+    <t>Daily</t>
+  </si>
+  <si>
+    <t>Consolidated</t>
+  </si>
+  <si>
+    <t>Monthly</t>
+  </si>
+  <si>
+    <t>Master Files</t>
+  </si>
+  <si>
+    <t>Timesheets</t>
+  </si>
+  <si>
+    <t>Schedule Details File</t>
+  </si>
+  <si>
+    <t>Master File</t>
+  </si>
+  <si>
+    <t>MasterFileFolderName</t>
+  </si>
+  <si>
+    <t>TimesheetsFolderName</t>
+  </si>
+  <si>
+    <t>ScheduleDetailsFileFolderName</t>
+  </si>
+  <si>
+    <t>InvoicesFolderName</t>
+  </si>
+  <si>
+    <t>Invoices</t>
+  </si>
+  <si>
+    <t>QuotationFolderName</t>
+  </si>
+  <si>
+    <t>Quotations Files</t>
+  </si>
+  <si>
+    <t>POFolderName</t>
+  </si>
+  <si>
+    <t>Purchase Orders</t>
+  </si>
+  <si>
+    <t>StatusBot2Col</t>
+  </si>
+  <si>
+    <t>Comments2Col</t>
+  </si>
+  <si>
+    <t>Status Bot2</t>
+  </si>
+  <si>
+    <t>Comments2</t>
+  </si>
+  <si>
+    <t>DOPdfPathDaily</t>
+  </si>
+  <si>
+    <t>DOPdfPathConsolidated</t>
+  </si>
+  <si>
+    <t>ExcelTimeSheetPath</t>
+  </si>
+  <si>
+    <t>M:\2. Sales Department\Unipath\Time Sheets\ExcelTimesheets\</t>
+  </si>
+  <si>
+    <t>M:\2. Sales Department\Unipath\Delivery Orders\Daily\</t>
+  </si>
+  <si>
+    <t>M:\2. Sales Department\Unipath\Delivery Orders\Consolidated\</t>
+  </si>
+  <si>
+    <t>M:\2. Sales Department\Unipath\Time Sheets\PDFTimesheets\</t>
+  </si>
+  <si>
+    <t>PDFTimeSheetPath</t>
+  </si>
+  <si>
+    <t>Fields to be added on UI by Huphin</t>
+  </si>
+  <si>
+    <t>ScheduleDetails</t>
+  </si>
+  <si>
+    <t>ScheduleDetailsSheetName</t>
+  </si>
+  <si>
+    <t>Retry Interval Short</t>
+  </si>
+  <si>
+    <t>Retry Interval Medium</t>
+  </si>
+  <si>
+    <t>Retry Interval Long</t>
+  </si>
+  <si>
+    <t>Daily Name</t>
+  </si>
+  <si>
+    <t>Monthly Name</t>
+  </si>
+  <si>
+    <t>DONumber Col from Master file</t>
+  </si>
+  <si>
+    <t>Schedule Details File Folder Name from Master file</t>
+  </si>
+  <si>
+    <t>POFolder Folder Name</t>
+  </si>
+  <si>
+    <t>DOFolder Folder Name</t>
+  </si>
+  <si>
+    <t>Quotation Folder name</t>
+  </si>
+  <si>
+    <t>Timesheet Folder Name</t>
+  </si>
+  <si>
+    <t>InvoicesF Folder Name</t>
+  </si>
+  <si>
+    <t>Master file folder name</t>
+  </si>
+  <si>
+    <t>Excel time sheet path</t>
+  </si>
+  <si>
+    <t>Consolidated Name</t>
+  </si>
+  <si>
+    <t>Schedule details sheet name</t>
+  </si>
+  <si>
+    <t>DO PDF Path Daily</t>
+  </si>
+  <si>
+    <t>DO PDF Path Consolidated</t>
+  </si>
+  <si>
+    <t>PDF Timesheet Path</t>
+  </si>
+  <si>
+    <t>Job Site Address Column from Master file</t>
+  </si>
+  <si>
+    <t>Company Name Column from Master file</t>
+  </si>
+  <si>
+    <t>Item Group Column from Master file</t>
+  </si>
+  <si>
+    <t>Item Serial Column from Master file</t>
+  </si>
+  <si>
+    <t>Job Type Column from Master file</t>
+  </si>
+  <si>
+    <t>Start Time 1 Column from Master file</t>
+  </si>
+  <si>
+    <t>End Time 1 Column from Master file</t>
+  </si>
+  <si>
+    <t>Start Time 2 Column from Master file</t>
+  </si>
+  <si>
+    <t>End Time 2 Column from Master file</t>
+  </si>
+  <si>
+    <t>Signature Column from Master file</t>
+  </si>
+  <si>
+    <t>DO or timesheet file path Column from Master file</t>
+  </si>
+  <si>
+    <t>Monthly excel file path Column from Master file</t>
+  </si>
+  <si>
+    <t>Status Bot1 Column from Master file</t>
+  </si>
+  <si>
+    <t>Comments1 Column from Master file</t>
+  </si>
+  <si>
+    <t>Customer Name Column from Master file</t>
+  </si>
+  <si>
+    <t>Status Bot2 Column from Master file</t>
+  </si>
+  <si>
+    <t>Comments2 Column from Master file</t>
   </si>
 </sst>
 </file>
@@ -663,7 +990,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -674,6 +1001,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -989,10 +1317,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z983"/>
+  <dimension ref="A1:Z982"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -1051,46 +1379,46 @@
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B4" t="s">
         <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s">
         <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
       <c r="A6" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
         <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
@@ -1098,434 +1426,804 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="A9" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>44</v>
+        <v>246</v>
       </c>
       <c r="C10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
       <c r="A11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>54</v>
-      </c>
       <c r="C12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
       <c r="A13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" t="s">
         <v>55</v>
       </c>
-      <c r="B13" t="s">
-        <v>56</v>
-      </c>
       <c r="C13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
       <c r="A14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
       <c r="A15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="24" customHeight="1">
       <c r="A16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="25.2" customHeight="1">
       <c r="A17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="18.600000000000001" customHeight="1">
       <c r="A18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15" customHeight="1">
       <c r="A19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="14.25" customHeight="1">
       <c r="A20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="14.25" customHeight="1">
       <c r="A21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="14.25" customHeight="1">
       <c r="A22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="14.25" customHeight="1">
       <c r="A23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="14.25" customHeight="1">
       <c r="A24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="14.25" customHeight="1">
       <c r="A25" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="14.25" customHeight="1">
       <c r="A26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="14.25" customHeight="1">
       <c r="A27" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C27" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="13.8" customHeight="1">
       <c r="A28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1">
       <c r="A29" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B29" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C29" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1">
       <c r="A30" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C30" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1">
       <c r="A31" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B31" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C31" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="14.25" customHeight="1">
       <c r="A32" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C32" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="14.25" customHeight="1">
       <c r="A33" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B33">
         <v>5</v>
       </c>
       <c r="C33" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="14.25" customHeight="1">
       <c r="A34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B34">
         <v>10</v>
       </c>
       <c r="C34" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="14.25" customHeight="1">
       <c r="A35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B35">
         <v>30</v>
       </c>
       <c r="C35" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="14.25" customHeight="1">
       <c r="A36" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B36">
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="14.25" customHeight="1">
       <c r="A37" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B37">
         <v>3</v>
       </c>
       <c r="C37" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="14.25" customHeight="1">
       <c r="A38" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B38">
         <v>3</v>
       </c>
       <c r="C38" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="14.25" customHeight="1">
       <c r="A39" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B39" t="s">
         <v>51</v>
       </c>
-      <c r="B39" t="s">
-        <v>52</v>
-      </c>
       <c r="C39" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="14.25" customHeight="1">
       <c r="A40" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B40" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="C40" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="14.25" customHeight="1">
       <c r="A41" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>168</v>
-      </c>
       <c r="C41" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="14.25" customHeight="1">
       <c r="A42" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B42" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C42" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="14.25" customHeight="1">
       <c r="A43" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B43">
         <v>0.5</v>
       </c>
       <c r="C43" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A44" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="45" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="46" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="47" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="48" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="49" ht="14.25" customHeight="1"/>
-    <row r="50" ht="14.25" customHeight="1"/>
-    <row r="51" ht="14.25" customHeight="1"/>
-    <row r="52" ht="14.25" customHeight="1"/>
-    <row r="53" ht="14.25" customHeight="1"/>
-    <row r="54" ht="14.25" customHeight="1"/>
-    <row r="55" ht="14.25" customHeight="1"/>
-    <row r="56" ht="14.25" customHeight="1"/>
-    <row r="57" ht="14.25" customHeight="1"/>
-    <row r="58" ht="14.25" customHeight="1"/>
-    <row r="59" ht="14.25" customHeight="1"/>
-    <row r="60" ht="14.25" customHeight="1"/>
-    <row r="61" ht="14.25" customHeight="1"/>
-    <row r="62" ht="14.25" customHeight="1"/>
-    <row r="63" ht="14.25" customHeight="1"/>
-    <row r="64" ht="14.25" customHeight="1"/>
-    <row r="65" ht="14.25" customHeight="1"/>
-    <row r="66" ht="14.25" customHeight="1"/>
-    <row r="67" ht="14.25" customHeight="1"/>
-    <row r="68" ht="14.25" customHeight="1"/>
-    <row r="69" ht="14.25" customHeight="1"/>
-    <row r="70" ht="14.25" customHeight="1"/>
-    <row r="71" ht="14.25" customHeight="1"/>
-    <row r="72" ht="14.25" customHeight="1"/>
-    <row r="73" ht="14.25" customHeight="1"/>
-    <row r="74" ht="14.25" customHeight="1"/>
-    <row r="75" ht="14.25" customHeight="1"/>
-    <row r="76" ht="14.25" customHeight="1"/>
-    <row r="77" ht="14.25" customHeight="1"/>
-    <row r="78" ht="14.25" customHeight="1"/>
-    <row r="79" ht="14.25" customHeight="1"/>
-    <row r="80" ht="14.25" customHeight="1"/>
+      <c r="B44" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C44" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A45" t="s">
+        <v>176</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C45" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A46" t="s">
+        <v>177</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="C46" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A47" t="s">
+        <v>208</v>
+      </c>
+      <c r="B47" t="s">
+        <v>181</v>
+      </c>
+      <c r="C47" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A48" t="s">
+        <v>195</v>
+      </c>
+      <c r="B48" t="s">
+        <v>212</v>
+      </c>
+      <c r="C48" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A49" t="s">
+        <v>196</v>
+      </c>
+      <c r="B49" t="s">
+        <v>182</v>
+      </c>
+      <c r="C49" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A50" t="s">
+        <v>197</v>
+      </c>
+      <c r="B50" t="s">
+        <v>183</v>
+      </c>
+      <c r="C50" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A51" t="s">
+        <v>198</v>
+      </c>
+      <c r="B51" t="s">
+        <v>184</v>
+      </c>
+      <c r="C51" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A52" t="s">
+        <v>199</v>
+      </c>
+      <c r="B52" t="s">
+        <v>185</v>
+      </c>
+      <c r="C52" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A53" t="s">
+        <v>200</v>
+      </c>
+      <c r="B53" t="s">
+        <v>186</v>
+      </c>
+      <c r="C53" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A54" t="s">
+        <v>201</v>
+      </c>
+      <c r="B54" t="s">
+        <v>187</v>
+      </c>
+      <c r="C54" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A55" t="s">
+        <v>202</v>
+      </c>
+      <c r="B55" t="s">
+        <v>188</v>
+      </c>
+      <c r="C55" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A56" t="s">
+        <v>203</v>
+      </c>
+      <c r="B56" t="s">
+        <v>189</v>
+      </c>
+      <c r="C56" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A57" t="s">
+        <v>204</v>
+      </c>
+      <c r="B57" t="s">
+        <v>190</v>
+      </c>
+      <c r="C57" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A58" t="s">
+        <v>205</v>
+      </c>
+      <c r="B58" t="s">
+        <v>191</v>
+      </c>
+      <c r="C58" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A59" t="s">
+        <v>206</v>
+      </c>
+      <c r="B59" t="s">
+        <v>192</v>
+      </c>
+      <c r="C59" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A60" t="s">
+        <v>209</v>
+      </c>
+      <c r="B60" t="s">
+        <v>193</v>
+      </c>
+      <c r="C60" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A61" t="s">
+        <v>207</v>
+      </c>
+      <c r="B61" t="s">
+        <v>194</v>
+      </c>
+      <c r="C61" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A62" t="s">
+        <v>211</v>
+      </c>
+      <c r="B62" t="s">
+        <v>210</v>
+      </c>
+      <c r="C62" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A63" t="s">
+        <v>234</v>
+      </c>
+      <c r="B63" t="s">
+        <v>236</v>
+      </c>
+      <c r="C63" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A64" t="s">
+        <v>235</v>
+      </c>
+      <c r="B64" t="s">
+        <v>237</v>
+      </c>
+      <c r="C64" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A65" t="s">
+        <v>232</v>
+      </c>
+      <c r="B65" t="s">
+        <v>233</v>
+      </c>
+      <c r="C65" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A66" t="s">
+        <v>230</v>
+      </c>
+      <c r="B66" t="s">
+        <v>231</v>
+      </c>
+      <c r="C66" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A67" t="s">
+        <v>214</v>
+      </c>
+      <c r="B67" t="s">
+        <v>213</v>
+      </c>
+      <c r="C67" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A68" t="s">
+        <v>225</v>
+      </c>
+      <c r="B68" t="s">
+        <v>221</v>
+      </c>
+      <c r="C68" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A69" t="s">
+        <v>226</v>
+      </c>
+      <c r="B69" t="s">
+        <v>222</v>
+      </c>
+      <c r="C69" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A70" t="s">
+        <v>227</v>
+      </c>
+      <c r="B70" t="s">
+        <v>223</v>
+      </c>
+      <c r="C70" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A71" t="s">
+        <v>225</v>
+      </c>
+      <c r="B71" t="s">
+        <v>224</v>
+      </c>
+      <c r="C71" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A72" t="s">
+        <v>228</v>
+      </c>
+      <c r="B72" t="s">
+        <v>229</v>
+      </c>
+      <c r="C72" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A73" t="s">
+        <v>215</v>
+      </c>
+      <c r="B73" t="s">
+        <v>218</v>
+      </c>
+      <c r="C73" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A74" t="s">
+        <v>216</v>
+      </c>
+      <c r="B74" t="s">
+        <v>219</v>
+      </c>
+      <c r="C74" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A75" t="s">
+        <v>217</v>
+      </c>
+      <c r="B75" t="s">
+        <v>220</v>
+      </c>
+      <c r="C75" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A76" t="s">
+        <v>238</v>
+      </c>
+      <c r="B76" t="s">
+        <v>242</v>
+      </c>
+      <c r="C76" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A77" t="s">
+        <v>239</v>
+      </c>
+      <c r="B77" t="s">
+        <v>243</v>
+      </c>
+      <c r="C77" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A78" t="s">
+        <v>240</v>
+      </c>
+      <c r="B78" t="s">
+        <v>241</v>
+      </c>
+      <c r="C78" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A79" t="s">
+        <v>245</v>
+      </c>
+      <c r="B79" t="s">
+        <v>244</v>
+      </c>
+      <c r="C79" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A80" t="s">
+        <v>248</v>
+      </c>
+      <c r="B80" t="s">
+        <v>247</v>
+      </c>
+      <c r="C80" t="s">
+        <v>264</v>
+      </c>
+    </row>
     <row r="81" ht="14.25" customHeight="1"/>
     <row r="82" ht="14.25" customHeight="1"/>
     <row r="83" ht="14.25" customHeight="1"/>
@@ -2428,7 +3126,6 @@
     <row r="980" ht="14.25" customHeight="1"/>
     <row r="981" ht="14.25" customHeight="1"/>
     <row r="982" ht="14.25" customHeight="1"/>
-    <row r="983" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -2444,7 +3141,7 @@
   <dimension ref="A1:Z988"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -3607,8 +4304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14B39A53-AEB2-4255-A0D4-3631566A9FD8}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3631,42 +4328,42 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -3730,35 +4427,35 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
@@ -3766,21 +4463,21 @@
         <v>42</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
